--- a/data/di_heat_inputs_6ofr/120w/di_60fr_120w.xlsx
+++ b/data/di_heat_inputs_6ofr/120w/di_60fr_120w.xlsx
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A590" workbookViewId="0">
-      <selection activeCell="A603" sqref="A603:XFD763"/>
+    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +499,7 @@
         <v>360</v>
       </c>
       <c r="F2" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G2" s="5">
         <v>90</v>
@@ -528,7 +528,7 @@
         <v>360</v>
       </c>
       <c r="F3" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G3" s="5">
         <v>90</v>
@@ -557,7 +557,7 @@
         <v>360</v>
       </c>
       <c r="F4" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G4" s="5">
         <v>90</v>
@@ -586,7 +586,7 @@
         <v>360</v>
       </c>
       <c r="F5" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G5" s="5">
         <v>90</v>
@@ -615,7 +615,7 @@
         <v>360</v>
       </c>
       <c r="F6" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G6" s="5">
         <v>90</v>
@@ -644,7 +644,7 @@
         <v>360</v>
       </c>
       <c r="F7" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G7" s="5">
         <v>90</v>
@@ -673,7 +673,7 @@
         <v>360</v>
       </c>
       <c r="F8" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G8" s="5">
         <v>90</v>
@@ -702,7 +702,7 @@
         <v>360</v>
       </c>
       <c r="F9" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G9" s="5">
         <v>90</v>
@@ -731,7 +731,7 @@
         <v>360</v>
       </c>
       <c r="F10" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G10" s="5">
         <v>90</v>
@@ -760,7 +760,7 @@
         <v>360</v>
       </c>
       <c r="F11" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G11" s="5">
         <v>90</v>
@@ -789,7 +789,7 @@
         <v>360</v>
       </c>
       <c r="F12" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G12" s="5">
         <v>90</v>
@@ -818,7 +818,7 @@
         <v>360</v>
       </c>
       <c r="F13" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G13" s="5">
         <v>90</v>
@@ -847,7 +847,7 @@
         <v>360</v>
       </c>
       <c r="F14" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G14" s="5">
         <v>90</v>
@@ -876,7 +876,7 @@
         <v>360</v>
       </c>
       <c r="F15" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G15" s="5">
         <v>90</v>
@@ -905,7 +905,7 @@
         <v>360</v>
       </c>
       <c r="F16" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G16" s="5">
         <v>90</v>
@@ -934,7 +934,7 @@
         <v>360</v>
       </c>
       <c r="F17" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G17" s="5">
         <v>90</v>
@@ -963,7 +963,7 @@
         <v>360</v>
       </c>
       <c r="F18" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G18" s="5">
         <v>90</v>
@@ -992,7 +992,7 @@
         <v>360</v>
       </c>
       <c r="F19" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G19" s="5">
         <v>90</v>
@@ -1021,7 +1021,7 @@
         <v>360</v>
       </c>
       <c r="F20" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G20" s="5">
         <v>90</v>
@@ -1050,7 +1050,7 @@
         <v>360</v>
       </c>
       <c r="F21" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G21" s="5">
         <v>90</v>
@@ -1079,7 +1079,7 @@
         <v>360</v>
       </c>
       <c r="F22" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G22" s="5">
         <v>90</v>
@@ -1108,7 +1108,7 @@
         <v>360</v>
       </c>
       <c r="F23" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G23" s="5">
         <v>90</v>
@@ -1137,7 +1137,7 @@
         <v>360</v>
       </c>
       <c r="F24" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G24" s="5">
         <v>90</v>
@@ -1166,7 +1166,7 @@
         <v>360</v>
       </c>
       <c r="F25" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G25" s="5">
         <v>90</v>
@@ -1195,7 +1195,7 @@
         <v>360</v>
       </c>
       <c r="F26" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G26" s="5">
         <v>90</v>
@@ -1224,7 +1224,7 @@
         <v>360</v>
       </c>
       <c r="F27" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G27" s="5">
         <v>90</v>
@@ -1253,7 +1253,7 @@
         <v>360</v>
       </c>
       <c r="F28" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G28" s="5">
         <v>90</v>
@@ -1282,7 +1282,7 @@
         <v>360</v>
       </c>
       <c r="F29" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G29" s="5">
         <v>90</v>
@@ -1311,7 +1311,7 @@
         <v>360</v>
       </c>
       <c r="F30" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G30" s="5">
         <v>90</v>
@@ -1340,7 +1340,7 @@
         <v>360</v>
       </c>
       <c r="F31" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G31" s="5">
         <v>90</v>
@@ -1369,7 +1369,7 @@
         <v>360</v>
       </c>
       <c r="F32" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G32" s="5">
         <v>90</v>
@@ -1398,7 +1398,7 @@
         <v>360</v>
       </c>
       <c r="F33" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G33" s="5">
         <v>90</v>
@@ -1427,7 +1427,7 @@
         <v>360</v>
       </c>
       <c r="F34" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G34" s="5">
         <v>90</v>
@@ -1456,7 +1456,7 @@
         <v>360</v>
       </c>
       <c r="F35" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G35" s="5">
         <v>90</v>
@@ -1485,7 +1485,7 @@
         <v>360</v>
       </c>
       <c r="F36" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G36" s="5">
         <v>90</v>
@@ -1514,7 +1514,7 @@
         <v>360</v>
       </c>
       <c r="F37" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G37" s="5">
         <v>90</v>
@@ -1543,7 +1543,7 @@
         <v>360</v>
       </c>
       <c r="F38" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G38" s="5">
         <v>90</v>
@@ -1572,7 +1572,7 @@
         <v>360</v>
       </c>
       <c r="F39" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G39" s="5">
         <v>90</v>
@@ -1601,7 +1601,7 @@
         <v>360</v>
       </c>
       <c r="F40" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G40" s="5">
         <v>90</v>
@@ -1630,7 +1630,7 @@
         <v>360</v>
       </c>
       <c r="F41" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G41" s="5">
         <v>90</v>
@@ -1659,7 +1659,7 @@
         <v>360</v>
       </c>
       <c r="F42" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G42" s="5">
         <v>90</v>
@@ -1688,7 +1688,7 @@
         <v>360</v>
       </c>
       <c r="F43" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G43" s="5">
         <v>90</v>
@@ -1717,7 +1717,7 @@
         <v>360</v>
       </c>
       <c r="F44" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G44" s="5">
         <v>90</v>
@@ -1746,7 +1746,7 @@
         <v>360</v>
       </c>
       <c r="F45" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G45" s="5">
         <v>90</v>
@@ -1775,7 +1775,7 @@
         <v>360</v>
       </c>
       <c r="F46" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G46" s="5">
         <v>90</v>
@@ -1804,7 +1804,7 @@
         <v>360</v>
       </c>
       <c r="F47" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G47" s="5">
         <v>90</v>
@@ -1833,7 +1833,7 @@
         <v>360</v>
       </c>
       <c r="F48" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G48" s="5">
         <v>90</v>
@@ -1862,7 +1862,7 @@
         <v>360</v>
       </c>
       <c r="F49" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G49" s="5">
         <v>90</v>
@@ -1891,7 +1891,7 @@
         <v>360</v>
       </c>
       <c r="F50" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G50" s="5">
         <v>90</v>
@@ -1920,7 +1920,7 @@
         <v>360</v>
       </c>
       <c r="F51" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G51" s="5">
         <v>90</v>
@@ -1949,7 +1949,7 @@
         <v>360</v>
       </c>
       <c r="F52" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G52" s="5">
         <v>90</v>
@@ -1978,7 +1978,7 @@
         <v>360</v>
       </c>
       <c r="F53" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G53" s="5">
         <v>90</v>
@@ -2007,7 +2007,7 @@
         <v>360</v>
       </c>
       <c r="F54" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G54" s="5">
         <v>90</v>
@@ -2036,7 +2036,7 @@
         <v>360</v>
       </c>
       <c r="F55" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G55" s="5">
         <v>90</v>
@@ -2065,7 +2065,7 @@
         <v>360</v>
       </c>
       <c r="F56" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G56" s="5">
         <v>90</v>
@@ -2094,7 +2094,7 @@
         <v>360</v>
       </c>
       <c r="F57" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G57" s="5">
         <v>90</v>
@@ -2123,7 +2123,7 @@
         <v>360</v>
       </c>
       <c r="F58" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G58" s="5">
         <v>90</v>
@@ -2152,7 +2152,7 @@
         <v>360</v>
       </c>
       <c r="F59" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G59" s="5">
         <v>90</v>
@@ -2181,7 +2181,7 @@
         <v>360</v>
       </c>
       <c r="F60" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G60" s="5">
         <v>90</v>
@@ -2210,7 +2210,7 @@
         <v>360</v>
       </c>
       <c r="F61" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G61" s="5">
         <v>90</v>
@@ -2239,7 +2239,7 @@
         <v>360</v>
       </c>
       <c r="F62" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G62" s="5">
         <v>90</v>
@@ -2268,7 +2268,7 @@
         <v>360</v>
       </c>
       <c r="F63" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G63" s="5">
         <v>90</v>
@@ -2297,7 +2297,7 @@
         <v>360</v>
       </c>
       <c r="F64" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G64" s="5">
         <v>90</v>
@@ -2326,7 +2326,7 @@
         <v>360</v>
       </c>
       <c r="F65" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G65" s="5">
         <v>90</v>
@@ -2355,7 +2355,7 @@
         <v>360</v>
       </c>
       <c r="F66" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G66" s="5">
         <v>90</v>
@@ -2384,7 +2384,7 @@
         <v>360</v>
       </c>
       <c r="F67" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G67" s="5">
         <v>90</v>
@@ -2413,7 +2413,7 @@
         <v>360</v>
       </c>
       <c r="F68" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G68" s="5">
         <v>90</v>
@@ -2442,7 +2442,7 @@
         <v>360</v>
       </c>
       <c r="F69" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G69" s="5">
         <v>90</v>
@@ -2471,7 +2471,7 @@
         <v>385</v>
       </c>
       <c r="F70" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G70" s="5">
         <v>90</v>
@@ -2500,7 +2500,7 @@
         <v>385</v>
       </c>
       <c r="F71" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G71" s="5">
         <v>90</v>
@@ -2529,7 +2529,7 @@
         <v>385</v>
       </c>
       <c r="F72" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G72" s="5">
         <v>90</v>
@@ -2558,7 +2558,7 @@
         <v>385</v>
       </c>
       <c r="F73" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G73" s="5">
         <v>90</v>
@@ -2587,7 +2587,7 @@
         <v>385</v>
       </c>
       <c r="F74" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G74" s="5">
         <v>90</v>
@@ -2616,7 +2616,7 @@
         <v>410</v>
       </c>
       <c r="F75" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G75" s="5">
         <v>90</v>
@@ -2645,7 +2645,7 @@
         <v>410</v>
       </c>
       <c r="F76" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G76" s="5">
         <v>90</v>
@@ -2674,7 +2674,7 @@
         <v>410</v>
       </c>
       <c r="F77" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G77" s="5">
         <v>90</v>
@@ -2703,7 +2703,7 @@
         <v>410</v>
       </c>
       <c r="F78" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G78" s="5">
         <v>90</v>
@@ -2732,7 +2732,7 @@
         <v>410</v>
       </c>
       <c r="F79" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G79" s="5">
         <v>90</v>
@@ -2761,7 +2761,7 @@
         <v>410</v>
       </c>
       <c r="F80" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G80" s="5">
         <v>90</v>
@@ -2790,7 +2790,7 @@
         <v>410</v>
       </c>
       <c r="F81" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G81" s="5">
         <v>90</v>
@@ -2819,7 +2819,7 @@
         <v>410</v>
       </c>
       <c r="F82" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G82" s="5">
         <v>90</v>
@@ -2848,7 +2848,7 @@
         <v>410</v>
       </c>
       <c r="F83" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G83" s="5">
         <v>90</v>
@@ -2877,7 +2877,7 @@
         <v>410</v>
       </c>
       <c r="F84" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G84" s="5">
         <v>90</v>
@@ -2906,7 +2906,7 @@
         <v>435</v>
       </c>
       <c r="F85" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G85" s="5">
         <v>90</v>
@@ -2935,7 +2935,7 @@
         <v>435</v>
       </c>
       <c r="F86" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G86" s="5">
         <v>90</v>
@@ -2964,7 +2964,7 @@
         <v>435</v>
       </c>
       <c r="F87" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G87" s="5">
         <v>90</v>
@@ -2993,7 +2993,7 @@
         <v>435</v>
       </c>
       <c r="F88" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G88" s="5">
         <v>90</v>
@@ -3022,7 +3022,7 @@
         <v>460</v>
       </c>
       <c r="F89" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G89" s="5">
         <v>90</v>
@@ -3051,7 +3051,7 @@
         <v>460</v>
       </c>
       <c r="F90" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G90" s="5">
         <v>90</v>
@@ -3080,7 +3080,7 @@
         <v>460</v>
       </c>
       <c r="F91" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G91" s="5">
         <v>90</v>
@@ -3109,7 +3109,7 @@
         <v>460</v>
       </c>
       <c r="F92" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G92" s="5">
         <v>90</v>
@@ -3138,7 +3138,7 @@
         <v>460</v>
       </c>
       <c r="F93" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G93" s="5">
         <v>90</v>
@@ -3167,7 +3167,7 @@
         <v>460</v>
       </c>
       <c r="F94" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G94" s="5">
         <v>90</v>
@@ -3196,7 +3196,7 @@
         <v>460</v>
       </c>
       <c r="F95" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G95" s="5">
         <v>90</v>
@@ -3225,7 +3225,7 @@
         <v>485</v>
       </c>
       <c r="F96" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G96" s="5">
         <v>90</v>
@@ -3254,7 +3254,7 @@
         <v>485</v>
       </c>
       <c r="F97" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G97" s="5">
         <v>90</v>
@@ -3283,7 +3283,7 @@
         <v>485</v>
       </c>
       <c r="F98" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G98" s="5">
         <v>90</v>
@@ -3312,7 +3312,7 @@
         <v>485</v>
       </c>
       <c r="F99" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G99" s="5">
         <v>90</v>
@@ -3341,7 +3341,7 @@
         <v>510</v>
       </c>
       <c r="F100" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G100" s="5">
         <v>90</v>
@@ -3370,7 +3370,7 @@
         <v>510</v>
       </c>
       <c r="F101" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G101" s="5">
         <v>90</v>
@@ -3399,7 +3399,7 @@
         <v>510</v>
       </c>
       <c r="F102" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G102" s="5">
         <v>90</v>
@@ -3428,7 +3428,7 @@
         <v>510</v>
       </c>
       <c r="F103" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G103" s="5">
         <v>90</v>
@@ -3457,7 +3457,7 @@
         <v>510</v>
       </c>
       <c r="F104" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G104" s="5">
         <v>90</v>
@@ -3486,7 +3486,7 @@
         <v>510</v>
       </c>
       <c r="F105" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G105" s="5">
         <v>90</v>
@@ -3515,7 +3515,7 @@
         <v>535</v>
       </c>
       <c r="F106" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G106" s="5">
         <v>90</v>
@@ -3544,7 +3544,7 @@
         <v>535</v>
       </c>
       <c r="F107" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G107" s="5">
         <v>90</v>
@@ -3573,7 +3573,7 @@
         <v>535</v>
       </c>
       <c r="F108" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G108" s="5">
         <v>90</v>
@@ -3602,7 +3602,7 @@
         <v>535</v>
       </c>
       <c r="F109" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G109" s="5">
         <v>90</v>
@@ -3631,7 +3631,7 @@
         <v>560</v>
       </c>
       <c r="F110" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G110" s="5">
         <v>90</v>
@@ -3660,7 +3660,7 @@
         <v>560</v>
       </c>
       <c r="F111" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G111" s="5">
         <v>90</v>
@@ -3689,7 +3689,7 @@
         <v>585</v>
       </c>
       <c r="F112" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G112" s="5">
         <v>90</v>
@@ -3718,7 +3718,7 @@
         <v>610</v>
       </c>
       <c r="F113" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G113" s="5">
         <v>90</v>
@@ -3747,7 +3747,7 @@
         <v>610</v>
       </c>
       <c r="F114" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G114" s="5">
         <v>90</v>
@@ -3776,7 +3776,7 @@
         <v>610</v>
       </c>
       <c r="F115" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G115" s="5">
         <v>90</v>
@@ -3805,7 +3805,7 @@
         <v>610</v>
       </c>
       <c r="F116" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G116" s="5">
         <v>90</v>
@@ -3834,7 +3834,7 @@
         <v>610</v>
       </c>
       <c r="F117" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G117" s="5">
         <v>90</v>
@@ -3863,7 +3863,7 @@
         <v>610</v>
       </c>
       <c r="F118" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G118" s="5">
         <v>90</v>
@@ -3892,7 +3892,7 @@
         <v>635</v>
       </c>
       <c r="F119" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G119" s="5">
         <v>90</v>
@@ -3921,7 +3921,7 @@
         <v>635</v>
       </c>
       <c r="F120" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G120" s="5">
         <v>90</v>
@@ -3950,7 +3950,7 @@
         <v>635</v>
       </c>
       <c r="F121" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G121" s="5">
         <v>90</v>
@@ -3979,7 +3979,7 @@
         <v>635</v>
       </c>
       <c r="F122" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G122" s="5">
         <v>90</v>
@@ -4008,7 +4008,7 @@
         <v>660</v>
       </c>
       <c r="F123" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G123" s="5">
         <v>90</v>
@@ -4037,7 +4037,7 @@
         <v>660</v>
       </c>
       <c r="F124" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G124" s="5">
         <v>90</v>
@@ -4066,7 +4066,7 @@
         <v>660</v>
       </c>
       <c r="F125" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G125" s="5">
         <v>90</v>
@@ -4095,7 +4095,7 @@
         <v>660</v>
       </c>
       <c r="F126" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G126" s="5">
         <v>90</v>
@@ -4124,7 +4124,7 @@
         <v>660</v>
       </c>
       <c r="F127" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G127" s="5">
         <v>90</v>
@@ -4153,7 +4153,7 @@
         <v>660</v>
       </c>
       <c r="F128" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G128" s="5">
         <v>90</v>
@@ -4182,7 +4182,7 @@
         <v>685</v>
       </c>
       <c r="F129" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G129" s="5">
         <v>90</v>
@@ -4211,7 +4211,7 @@
         <v>685</v>
       </c>
       <c r="F130" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G130" s="5">
         <v>90</v>
@@ -4240,7 +4240,7 @@
         <v>710</v>
       </c>
       <c r="F131" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G131" s="5">
         <v>90</v>
@@ -4269,7 +4269,7 @@
         <v>710</v>
       </c>
       <c r="F132" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G132" s="5">
         <v>90</v>
@@ -4298,7 +4298,7 @@
         <v>710</v>
       </c>
       <c r="F133" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G133" s="5">
         <v>90</v>
@@ -4327,7 +4327,7 @@
         <v>710</v>
       </c>
       <c r="F134" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G134" s="5">
         <v>90</v>
@@ -4356,7 +4356,7 @@
         <v>710</v>
       </c>
       <c r="F135" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G135" s="5">
         <v>90</v>
@@ -4385,7 +4385,7 @@
         <v>710</v>
       </c>
       <c r="F136" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G136" s="5">
         <v>90</v>
@@ -4414,7 +4414,7 @@
         <v>735</v>
       </c>
       <c r="F137" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G137" s="5">
         <v>90</v>
@@ -4443,7 +4443,7 @@
         <v>760</v>
       </c>
       <c r="F138" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G138" s="5">
         <v>90</v>
@@ -4472,7 +4472,7 @@
         <v>760</v>
       </c>
       <c r="F139" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G139" s="5">
         <v>90</v>
@@ -4501,7 +4501,7 @@
         <v>760</v>
       </c>
       <c r="F140" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G140" s="5">
         <v>90</v>
@@ -4530,7 +4530,7 @@
         <v>760</v>
       </c>
       <c r="F141" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G141" s="5">
         <v>90</v>
@@ -4559,7 +4559,7 @@
         <v>760</v>
       </c>
       <c r="F142" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G142" s="5">
         <v>90</v>
@@ -4588,7 +4588,7 @@
         <v>796.78</v>
       </c>
       <c r="F143" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G143" s="5">
         <v>90</v>
@@ -4617,7 +4617,7 @@
         <v>796.78</v>
       </c>
       <c r="F144" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G144" s="5">
         <v>90</v>
@@ -4646,7 +4646,7 @@
         <v>796.78</v>
       </c>
       <c r="F145" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G145" s="5">
         <v>90</v>
@@ -4675,7 +4675,7 @@
         <v>796.78</v>
       </c>
       <c r="F146" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G146" s="5">
         <v>90</v>
@@ -4704,7 +4704,7 @@
         <v>796.78</v>
       </c>
       <c r="F147" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G147" s="5">
         <v>90</v>
@@ -4733,7 +4733,7 @@
         <v>796.78</v>
       </c>
       <c r="F148" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G148" s="5">
         <v>90</v>
@@ -4762,7 +4762,7 @@
         <v>796.78</v>
       </c>
       <c r="F149" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G149" s="5">
         <v>90</v>
@@ -4791,7 +4791,7 @@
         <v>796.78</v>
       </c>
       <c r="F150" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G150" s="5">
         <v>90</v>
@@ -4820,7 +4820,7 @@
         <v>796.78</v>
       </c>
       <c r="F151" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G151" s="5">
         <v>90</v>
@@ -4849,7 +4849,7 @@
         <v>833.56</v>
       </c>
       <c r="F152" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G152" s="5">
         <v>90</v>
@@ -4878,7 +4878,7 @@
         <v>833.56</v>
       </c>
       <c r="F153" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G153" s="5">
         <v>90</v>
@@ -4907,7 +4907,7 @@
         <v>833.56</v>
       </c>
       <c r="F154" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G154" s="5">
         <v>90</v>
@@ -4936,7 +4936,7 @@
         <v>870.34</v>
       </c>
       <c r="F155" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G155" s="5">
         <v>90</v>
@@ -4965,7 +4965,7 @@
         <v>870.34</v>
       </c>
       <c r="F156" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G156" s="5">
         <v>90</v>
@@ -4994,7 +4994,7 @@
         <v>870.34</v>
       </c>
       <c r="F157" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G157" s="5">
         <v>90</v>
@@ -5023,7 +5023,7 @@
         <v>870.34</v>
       </c>
       <c r="F158" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G158" s="5">
         <v>90</v>
@@ -5052,7 +5052,7 @@
         <v>907.12</v>
       </c>
       <c r="F159" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G159" s="5">
         <v>90</v>
@@ -5081,7 +5081,7 @@
         <v>907.12</v>
       </c>
       <c r="F160" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G160" s="5">
         <v>90</v>
@@ -5110,7 +5110,7 @@
         <v>907.12</v>
       </c>
       <c r="F161" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G161" s="5">
         <v>90</v>
@@ -5139,7 +5139,7 @@
         <v>907.12</v>
       </c>
       <c r="F162" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G162" s="5">
         <v>90</v>
@@ -5168,7 +5168,7 @@
         <v>907.12</v>
       </c>
       <c r="F163" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G163" s="5">
         <v>90</v>
@@ -5197,7 +5197,7 @@
         <v>907.12</v>
       </c>
       <c r="F164" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G164" s="5">
         <v>90</v>
@@ -5226,7 +5226,7 @@
         <v>907.12</v>
       </c>
       <c r="F165" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G165" s="5">
         <v>90</v>
@@ -5255,7 +5255,7 @@
         <v>943.9</v>
       </c>
       <c r="F166" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G166" s="5">
         <v>90</v>
@@ -5284,7 +5284,7 @@
         <v>943.9</v>
       </c>
       <c r="F167" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G167" s="5">
         <v>90</v>
@@ -5313,7 +5313,7 @@
         <v>943.9</v>
       </c>
       <c r="F168" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G168" s="5">
         <v>90</v>
@@ -5342,7 +5342,7 @@
         <v>943.9</v>
       </c>
       <c r="F169" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G169" s="5">
         <v>90</v>
@@ -5371,7 +5371,7 @@
         <v>943.9</v>
       </c>
       <c r="F170" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G170" s="5">
         <v>90</v>
@@ -5400,7 +5400,7 @@
         <v>980.68000000000006</v>
       </c>
       <c r="F171" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G171" s="5">
         <v>90</v>
@@ -5429,7 +5429,7 @@
         <v>980.68000000000006</v>
       </c>
       <c r="F172" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G172" s="5">
         <v>90</v>
@@ -5458,7 +5458,7 @@
         <v>980.68000000000006</v>
       </c>
       <c r="F173" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G173" s="5">
         <v>90</v>
@@ -5487,7 +5487,7 @@
         <v>980.68000000000006</v>
       </c>
       <c r="F174" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G174" s="5">
         <v>90</v>
@@ -5516,7 +5516,7 @@
         <v>980.68000000000006</v>
       </c>
       <c r="F175" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G175" s="5">
         <v>90</v>
@@ -5545,7 +5545,7 @@
         <v>980.68000000000006</v>
       </c>
       <c r="F176" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G176" s="5">
         <v>90</v>
@@ -5574,7 +5574,7 @@
         <v>980.68000000000006</v>
       </c>
       <c r="F177" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G177" s="5">
         <v>90</v>
@@ -5603,7 +5603,7 @@
         <v>1017.46</v>
       </c>
       <c r="F178" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G178" s="5">
         <v>90</v>
@@ -5632,7 +5632,7 @@
         <v>1017.46</v>
       </c>
       <c r="F179" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G179" s="5">
         <v>90</v>
@@ -5661,7 +5661,7 @@
         <v>1017.46</v>
       </c>
       <c r="F180" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G180" s="5">
         <v>90</v>
@@ -5690,7 +5690,7 @@
         <v>1017.46</v>
       </c>
       <c r="F181" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G181" s="5">
         <v>90</v>
@@ -5719,7 +5719,7 @@
         <v>1054.24</v>
       </c>
       <c r="F182" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G182" s="5">
         <v>90</v>
@@ -5748,7 +5748,7 @@
         <v>1054.24</v>
       </c>
       <c r="F183" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G183" s="5">
         <v>90</v>
@@ -5777,7 +5777,7 @@
         <v>1054.24</v>
       </c>
       <c r="F184" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G184" s="5">
         <v>90</v>
@@ -5806,7 +5806,7 @@
         <v>1054.24</v>
       </c>
       <c r="F185" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G185" s="5">
         <v>90</v>
@@ -5835,7 +5835,7 @@
         <v>1054.24</v>
       </c>
       <c r="F186" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G186" s="5">
         <v>90</v>
@@ -5864,7 +5864,7 @@
         <v>1091.02</v>
       </c>
       <c r="F187" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G187" s="5">
         <v>90</v>
@@ -5893,7 +5893,7 @@
         <v>1091.02</v>
       </c>
       <c r="F188" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G188" s="5">
         <v>90</v>
@@ -5922,7 +5922,7 @@
         <v>1091.02</v>
       </c>
       <c r="F189" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G189" s="5">
         <v>90</v>
@@ -5951,7 +5951,7 @@
         <v>1091.02</v>
       </c>
       <c r="F190" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G190" s="5">
         <v>90</v>
@@ -5980,7 +5980,7 @@
         <v>1127.8</v>
       </c>
       <c r="F191" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G191" s="5">
         <v>90</v>
@@ -6009,7 +6009,7 @@
         <v>1127.8</v>
       </c>
       <c r="F192" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G192" s="5">
         <v>90</v>
@@ -6038,7 +6038,7 @@
         <v>1127.8</v>
       </c>
       <c r="F193" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G193" s="5">
         <v>90</v>
@@ -6067,7 +6067,7 @@
         <v>1127.8</v>
       </c>
       <c r="F194" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G194" s="5">
         <v>90</v>
@@ -6096,7 +6096,7 @@
         <v>1127.8</v>
       </c>
       <c r="F195" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G195" s="5">
         <v>90</v>
@@ -6125,7 +6125,7 @@
         <v>1127.8</v>
       </c>
       <c r="F196" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G196" s="5">
         <v>90</v>
@@ -6154,7 +6154,7 @@
         <v>1127.8</v>
       </c>
       <c r="F197" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G197" s="5">
         <v>90</v>
@@ -6183,7 +6183,7 @@
         <v>1127.8</v>
       </c>
       <c r="F198" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G198" s="5">
         <v>90</v>
@@ -6212,7 +6212,7 @@
         <v>1127.8</v>
       </c>
       <c r="F199" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G199" s="5">
         <v>90</v>
@@ -6241,7 +6241,7 @@
         <v>1091.02</v>
       </c>
       <c r="F200" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G200" s="5">
         <v>90</v>
@@ -6270,7 +6270,7 @@
         <v>1091.02</v>
       </c>
       <c r="F201" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G201" s="5">
         <v>90</v>
@@ -6299,7 +6299,7 @@
         <v>1091.02</v>
       </c>
       <c r="F202" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G202" s="5">
         <v>90</v>
@@ -6328,7 +6328,7 @@
         <v>1201.3600000000001</v>
       </c>
       <c r="F203" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G203" s="5">
         <v>90</v>
@@ -6357,7 +6357,7 @@
         <v>1201.3600000000001</v>
       </c>
       <c r="F204" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G204" s="5">
         <v>90</v>
@@ -6386,7 +6386,7 @@
         <v>1201.3600000000001</v>
       </c>
       <c r="F205" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G205" s="5">
         <v>90</v>
@@ -6415,7 +6415,7 @@
         <v>1201.3600000000001</v>
       </c>
       <c r="F206" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G206" s="5">
         <v>90</v>
@@ -6444,7 +6444,7 @@
         <v>1201.3600000000001</v>
       </c>
       <c r="F207" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G207" s="5">
         <v>90</v>
@@ -6473,7 +6473,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F208" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G208" s="5">
         <v>90</v>
@@ -6502,7 +6502,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F209" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G209" s="5">
         <v>90</v>
@@ -6531,7 +6531,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F210" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G210" s="5">
         <v>90</v>
@@ -6560,7 +6560,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F211" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G211" s="5">
         <v>90</v>
@@ -6589,7 +6589,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F212" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G212" s="5">
         <v>90</v>
@@ -6618,7 +6618,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F213" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G213" s="5">
         <v>90</v>
@@ -6647,7 +6647,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F214" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G214" s="5">
         <v>90</v>
@@ -6676,7 +6676,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F215" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G215" s="5">
         <v>90</v>
@@ -6705,7 +6705,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F216" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G216" s="5">
         <v>90</v>
@@ -6734,7 +6734,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F217" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G217" s="5">
         <v>90</v>
@@ -6763,7 +6763,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F218" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G218" s="5">
         <v>90</v>
@@ -6792,7 +6792,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F219" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G219" s="5">
         <v>90</v>
@@ -6821,7 +6821,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F220" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G220" s="5">
         <v>90</v>
@@ -6850,7 +6850,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F221" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G221" s="5">
         <v>90</v>
@@ -6879,7 +6879,7 @@
         <v>1238.1400000000001</v>
       </c>
       <c r="F222" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G222" s="5">
         <v>90</v>
@@ -6908,7 +6908,7 @@
         <v>1274.92</v>
       </c>
       <c r="F223" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G223" s="5">
         <v>90</v>
@@ -6937,7 +6937,7 @@
         <v>1274.92</v>
       </c>
       <c r="F224" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G224" s="5">
         <v>90</v>
@@ -6966,7 +6966,7 @@
         <v>1274.92</v>
       </c>
       <c r="F225" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G225" s="5">
         <v>90</v>
@@ -6995,7 +6995,7 @@
         <v>1274.92</v>
       </c>
       <c r="F226" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G226" s="5">
         <v>90</v>
@@ -7024,7 +7024,7 @@
         <v>1274.92</v>
       </c>
       <c r="F227" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G227" s="5">
         <v>90</v>
@@ -7053,7 +7053,7 @@
         <v>1274.92</v>
       </c>
       <c r="F228" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G228" s="5">
         <v>90</v>
@@ -7082,7 +7082,7 @@
         <v>1274.92</v>
       </c>
       <c r="F229" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G229" s="5">
         <v>90</v>
@@ -7111,7 +7111,7 @@
         <v>1274.92</v>
       </c>
       <c r="F230" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G230" s="5">
         <v>90</v>
@@ -7140,7 +7140,7 @@
         <v>1311.7</v>
       </c>
       <c r="F231" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G231" s="5">
         <v>90</v>
@@ -7169,7 +7169,7 @@
         <v>1311.7</v>
       </c>
       <c r="F232" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G232" s="5">
         <v>90</v>
@@ -7198,7 +7198,7 @@
         <v>1311.7</v>
       </c>
       <c r="F233" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G233" s="5">
         <v>90</v>
@@ -7227,7 +7227,7 @@
         <v>1311.7</v>
       </c>
       <c r="F234" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G234" s="5">
         <v>90</v>
@@ -7256,7 +7256,7 @@
         <v>1311.7</v>
       </c>
       <c r="F235" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G235" s="5">
         <v>90</v>
@@ -7285,7 +7285,7 @@
         <v>1311.7</v>
       </c>
       <c r="F236" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G236" s="5">
         <v>90</v>
@@ -7314,7 +7314,7 @@
         <v>1311.7</v>
       </c>
       <c r="F237" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G237" s="5">
         <v>90</v>
@@ -7343,7 +7343,7 @@
         <v>1311.7</v>
       </c>
       <c r="F238" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G238" s="5">
         <v>90</v>
@@ -7372,7 +7372,7 @@
         <v>1311.7</v>
       </c>
       <c r="F239" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G239" s="5">
         <v>90</v>
@@ -7401,7 +7401,7 @@
         <v>1311.7</v>
       </c>
       <c r="F240" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G240" s="5">
         <v>90</v>
@@ -7430,7 +7430,7 @@
         <v>1348.48</v>
       </c>
       <c r="F241" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G241" s="5">
         <v>90</v>
@@ -7459,7 +7459,7 @@
         <v>1348.48</v>
       </c>
       <c r="F242" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G242" s="5">
         <v>90</v>
@@ -7488,7 +7488,7 @@
         <v>1348.48</v>
       </c>
       <c r="F243" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G243" s="5">
         <v>90</v>
@@ -7517,7 +7517,7 @@
         <v>1348.48</v>
       </c>
       <c r="F244" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G244" s="5">
         <v>90</v>
@@ -7546,7 +7546,7 @@
         <v>1348.48</v>
       </c>
       <c r="F245" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G245" s="5">
         <v>90</v>
@@ -7575,7 +7575,7 @@
         <v>1348.48</v>
       </c>
       <c r="F246" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G246" s="5">
         <v>90</v>
@@ -7604,7 +7604,7 @@
         <v>1348.48</v>
       </c>
       <c r="F247" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G247" s="5">
         <v>90</v>
@@ -7633,7 +7633,7 @@
         <v>1348.48</v>
       </c>
       <c r="F248" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G248" s="5">
         <v>90</v>
@@ -7662,7 +7662,7 @@
         <v>1348.48</v>
       </c>
       <c r="F249" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G249" s="5">
         <v>90</v>
@@ -7691,7 +7691,7 @@
         <v>1348.48</v>
       </c>
       <c r="F250" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G250" s="5">
         <v>90</v>
@@ -7720,7 +7720,7 @@
         <v>1348.48</v>
       </c>
       <c r="F251" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G251" s="5">
         <v>90</v>
@@ -7749,7 +7749,7 @@
         <v>1385.26</v>
       </c>
       <c r="F252" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G252" s="5">
         <v>90</v>
@@ -7778,7 +7778,7 @@
         <v>1385.26</v>
       </c>
       <c r="F253" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G253" s="5">
         <v>90</v>
@@ -7807,7 +7807,7 @@
         <v>1385.26</v>
       </c>
       <c r="F254" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G254" s="5">
         <v>90</v>
@@ -7836,7 +7836,7 @@
         <v>1385.26</v>
       </c>
       <c r="F255" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G255" s="5">
         <v>90</v>
@@ -7865,7 +7865,7 @@
         <v>1385.26</v>
       </c>
       <c r="F256" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G256" s="5">
         <v>90</v>
@@ -7894,7 +7894,7 @@
         <v>1385.26</v>
       </c>
       <c r="F257" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G257" s="5">
         <v>90</v>
@@ -7923,7 +7923,7 @@
         <v>1422.04</v>
       </c>
       <c r="F258" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G258" s="5">
         <v>90</v>
@@ -7952,7 +7952,7 @@
         <v>1422.04</v>
       </c>
       <c r="F259" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G259" s="5">
         <v>90</v>
@@ -7981,7 +7981,7 @@
         <v>1422.04</v>
       </c>
       <c r="F260" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G260" s="5">
         <v>90</v>
@@ -8010,7 +8010,7 @@
         <v>1422.04</v>
       </c>
       <c r="F261" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G261" s="5">
         <v>90</v>
@@ -8039,7 +8039,7 @@
         <v>1422.04</v>
       </c>
       <c r="F262" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G262" s="5">
         <v>90</v>
@@ -8068,7 +8068,7 @@
         <v>1422.04</v>
       </c>
       <c r="F263" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G263" s="5">
         <v>90</v>
@@ -8097,7 +8097,7 @@
         <v>1422.04</v>
       </c>
       <c r="F264" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G264" s="5">
         <v>90</v>
@@ -8126,7 +8126,7 @@
         <v>1422.04</v>
       </c>
       <c r="F265" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G265" s="5">
         <v>90</v>
@@ -8155,7 +8155,7 @@
         <v>1422.04</v>
       </c>
       <c r="F266" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G266" s="5">
         <v>90</v>
@@ -8184,7 +8184,7 @@
         <v>1422.04</v>
       </c>
       <c r="F267" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G267" s="5">
         <v>90</v>
@@ -8213,7 +8213,7 @@
         <v>1422.04</v>
       </c>
       <c r="F268" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G268" s="5">
         <v>90</v>
@@ -8242,7 +8242,7 @@
         <v>1458.82</v>
       </c>
       <c r="F269" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G269" s="5">
         <v>90</v>
@@ -8271,7 +8271,7 @@
         <v>1495.6</v>
       </c>
       <c r="F270" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G270" s="5">
         <v>90</v>
@@ -8300,7 +8300,7 @@
         <v>1495.6</v>
       </c>
       <c r="F271" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G271" s="5">
         <v>90</v>
@@ -8329,7 +8329,7 @@
         <v>1495.6</v>
       </c>
       <c r="F272" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G272" s="5">
         <v>90</v>
@@ -8358,7 +8358,7 @@
         <v>1495.6</v>
       </c>
       <c r="F273" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G273" s="5">
         <v>90</v>
@@ -8387,7 +8387,7 @@
         <v>1532.38</v>
       </c>
       <c r="F274" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G274" s="5">
         <v>90</v>
@@ -8416,7 +8416,7 @@
         <v>1532.38</v>
       </c>
       <c r="F275" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G275" s="5">
         <v>90</v>
@@ -8445,7 +8445,7 @@
         <v>1532.38</v>
       </c>
       <c r="F276" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G276" s="5">
         <v>90</v>
@@ -8474,7 +8474,7 @@
         <v>1532.38</v>
       </c>
       <c r="F277" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G277" s="5">
         <v>90</v>
@@ -8503,7 +8503,7 @@
         <v>1532.38</v>
       </c>
       <c r="F278" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G278" s="5">
         <v>90</v>
@@ -8532,7 +8532,7 @@
         <v>1532.38</v>
       </c>
       <c r="F279" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G279" s="5">
         <v>90</v>
@@ -8561,7 +8561,7 @@
         <v>1532.38</v>
       </c>
       <c r="F280" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G280" s="5">
         <v>90</v>
@@ -8590,7 +8590,7 @@
         <v>1532.38</v>
       </c>
       <c r="F281" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G281" s="5">
         <v>90</v>
@@ -8619,7 +8619,7 @@
         <v>1532.38</v>
       </c>
       <c r="F282" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G282" s="5">
         <v>90</v>
@@ -8648,7 +8648,7 @@
         <v>1532.38</v>
       </c>
       <c r="F283" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G283" s="5">
         <v>90</v>
@@ -8677,7 +8677,7 @@
         <v>1532.38</v>
       </c>
       <c r="F284" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G284" s="5">
         <v>90</v>
@@ -8706,7 +8706,7 @@
         <v>1569.16</v>
       </c>
       <c r="F285" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G285" s="5">
         <v>90</v>
@@ -8735,7 +8735,7 @@
         <v>1569.16</v>
       </c>
       <c r="F286" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G286" s="5">
         <v>90</v>
@@ -8764,7 +8764,7 @@
         <v>1569.16</v>
       </c>
       <c r="F287" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G287" s="5">
         <v>90</v>
@@ -8793,7 +8793,7 @@
         <v>1569.16</v>
       </c>
       <c r="F288" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G288" s="5">
         <v>90</v>
@@ -8822,7 +8822,7 @@
         <v>1569.16</v>
       </c>
       <c r="F289" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G289" s="5">
         <v>90</v>
@@ -8851,7 +8851,7 @@
         <v>1569.16</v>
       </c>
       <c r="F290" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G290" s="5">
         <v>90</v>
@@ -8880,7 +8880,7 @@
         <v>1569.16</v>
       </c>
       <c r="F291" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G291" s="5">
         <v>90</v>
@@ -8909,7 +8909,7 @@
         <v>1569.16</v>
       </c>
       <c r="F292" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G292" s="5">
         <v>90</v>
@@ -8938,7 +8938,7 @@
         <v>1569.16</v>
       </c>
       <c r="F293" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G293" s="5">
         <v>90</v>
@@ -8967,7 +8967,7 @@
         <v>1569.16</v>
       </c>
       <c r="F294" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G294" s="5">
         <v>90</v>
@@ -8996,7 +8996,7 @@
         <v>1569.16</v>
       </c>
       <c r="F295" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G295" s="5">
         <v>90</v>
@@ -9025,7 +9025,7 @@
         <v>1569.16</v>
       </c>
       <c r="F296" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G296" s="5">
         <v>90</v>
@@ -9054,7 +9054,7 @@
         <v>1569.16</v>
       </c>
       <c r="F297" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G297" s="5">
         <v>90</v>
@@ -9083,7 +9083,7 @@
         <v>1569.16</v>
       </c>
       <c r="F298" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G298" s="5">
         <v>90</v>
@@ -9112,7 +9112,7 @@
         <v>1569.16</v>
       </c>
       <c r="F299" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G299" s="5">
         <v>90</v>
@@ -9141,7 +9141,7 @@
         <v>1569.16</v>
       </c>
       <c r="F300" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G300" s="5">
         <v>90</v>
@@ -9170,7 +9170,7 @@
         <v>1569.16</v>
       </c>
       <c r="F301" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G301" s="5">
         <v>90</v>
@@ -9199,7 +9199,7 @@
         <v>1569.16</v>
       </c>
       <c r="F302" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G302" s="5">
         <v>90</v>
@@ -9228,7 +9228,7 @@
         <v>1569.16</v>
       </c>
       <c r="F303" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G303" s="5">
         <v>90</v>
@@ -9257,7 +9257,7 @@
         <v>1569.16</v>
       </c>
       <c r="F304" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G304" s="5">
         <v>90</v>
@@ -9286,7 +9286,7 @@
         <v>1605.94</v>
       </c>
       <c r="F305" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G305" s="5">
         <v>90</v>
@@ -9315,7 +9315,7 @@
         <v>1605.94</v>
       </c>
       <c r="F306" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G306" s="5">
         <v>90</v>
@@ -9344,7 +9344,7 @@
         <v>1605.94</v>
       </c>
       <c r="F307" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G307" s="5">
         <v>90</v>
@@ -9373,7 +9373,7 @@
         <v>1605.94</v>
       </c>
       <c r="F308" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G308" s="5">
         <v>90</v>
@@ -9402,7 +9402,7 @@
         <v>1605.94</v>
       </c>
       <c r="F309" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G309" s="5">
         <v>90</v>
@@ -9431,7 +9431,7 @@
         <v>1642.72</v>
       </c>
       <c r="F310" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G310" s="5">
         <v>90</v>
@@ -9460,7 +9460,7 @@
         <v>1642.72</v>
       </c>
       <c r="F311" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G311" s="5">
         <v>90</v>
@@ -9489,7 +9489,7 @@
         <v>1642.72</v>
       </c>
       <c r="F312" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G312" s="5">
         <v>90</v>
@@ -9518,7 +9518,7 @@
         <v>1642.72</v>
       </c>
       <c r="F313" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G313" s="5">
         <v>90</v>
@@ -9547,7 +9547,7 @@
         <v>1642.72</v>
       </c>
       <c r="F314" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G314" s="5">
         <v>90</v>
@@ -9576,7 +9576,7 @@
         <v>1679.5</v>
       </c>
       <c r="F315" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G315" s="5">
         <v>90</v>
@@ -9605,7 +9605,7 @@
         <v>1679.5</v>
       </c>
       <c r="F316" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G316" s="5">
         <v>90</v>
@@ -9634,7 +9634,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F317" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G317" s="5">
         <v>90</v>
@@ -9663,7 +9663,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F318" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G318" s="5">
         <v>90</v>
@@ -9692,7 +9692,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F319" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G319" s="5">
         <v>90</v>
@@ -9721,7 +9721,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F320" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G320" s="5">
         <v>90</v>
@@ -9750,7 +9750,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F321" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G321" s="5">
         <v>90</v>
@@ -9779,7 +9779,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F322" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G322" s="5">
         <v>90</v>
@@ -9808,7 +9808,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F323" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G323" s="5">
         <v>90</v>
@@ -9837,7 +9837,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F324" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G324" s="5">
         <v>90</v>
@@ -9866,7 +9866,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F325" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G325" s="5">
         <v>90</v>
@@ -9895,7 +9895,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F326" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G326" s="5">
         <v>90</v>
@@ -9924,7 +9924,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F327" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G327" s="5">
         <v>90</v>
@@ -9953,7 +9953,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F328" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G328" s="5">
         <v>90</v>
@@ -9982,7 +9982,7 @@
         <v>1716.2800000000002</v>
       </c>
       <c r="F329" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G329" s="5">
         <v>90</v>
@@ -10011,7 +10011,7 @@
         <v>1753.06</v>
       </c>
       <c r="F330" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G330" s="5">
         <v>90</v>
@@ -10040,7 +10040,7 @@
         <v>1753.06</v>
       </c>
       <c r="F331" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G331" s="5">
         <v>90</v>
@@ -10069,7 +10069,7 @@
         <v>1753.06</v>
       </c>
       <c r="F332" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G332" s="5">
         <v>90</v>
@@ -10098,7 +10098,7 @@
         <v>1753.06</v>
       </c>
       <c r="F333" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G333" s="5">
         <v>90</v>
@@ -10127,7 +10127,7 @@
         <v>1753.06</v>
       </c>
       <c r="F334" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G334" s="5">
         <v>90</v>
@@ -10156,7 +10156,7 @@
         <v>1753.06</v>
       </c>
       <c r="F335" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G335" s="5">
         <v>90</v>
@@ -10185,7 +10185,7 @@
         <v>1753.06</v>
       </c>
       <c r="F336" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G336" s="5">
         <v>90</v>
@@ -10214,7 +10214,7 @@
         <v>1753.06</v>
       </c>
       <c r="F337" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G337" s="5">
         <v>90</v>
@@ -10243,7 +10243,7 @@
         <v>1789.84</v>
       </c>
       <c r="F338" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G338" s="5">
         <v>90</v>
@@ -10272,7 +10272,7 @@
         <v>1789.84</v>
       </c>
       <c r="F339" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G339" s="5">
         <v>90</v>
@@ -10301,7 +10301,7 @@
         <v>1789.84</v>
       </c>
       <c r="F340" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G340" s="5">
         <v>90</v>
@@ -10330,7 +10330,7 @@
         <v>1789.84</v>
       </c>
       <c r="F341" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G341" s="5">
         <v>90</v>
@@ -10359,7 +10359,7 @@
         <v>1789.84</v>
       </c>
       <c r="F342" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G342" s="5">
         <v>90</v>
@@ -10388,7 +10388,7 @@
         <v>1789.84</v>
       </c>
       <c r="F343" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G343" s="5">
         <v>90</v>
@@ -10417,7 +10417,7 @@
         <v>1826.62</v>
       </c>
       <c r="F344" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G344" s="5">
         <v>90</v>
@@ -10446,7 +10446,7 @@
         <v>1863.4</v>
       </c>
       <c r="F345" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G345" s="5">
         <v>90</v>
@@ -10475,7 +10475,7 @@
         <v>1863.4</v>
       </c>
       <c r="F346" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G346" s="5">
         <v>90</v>
@@ -10504,7 +10504,7 @@
         <v>1900.18</v>
       </c>
       <c r="F347" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G347" s="5">
         <v>90</v>
@@ -10533,7 +10533,7 @@
         <v>1900.18</v>
       </c>
       <c r="F348" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G348" s="5">
         <v>90</v>
@@ -10562,7 +10562,7 @@
         <v>1863.4</v>
       </c>
       <c r="F349" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G349" s="5">
         <v>90</v>
@@ -10591,7 +10591,7 @@
         <v>1863.4</v>
       </c>
       <c r="F350" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G350" s="5">
         <v>90</v>
@@ -10620,7 +10620,7 @@
         <v>1863.4</v>
       </c>
       <c r="F351" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G351" s="5">
         <v>90</v>
@@ -10649,7 +10649,7 @@
         <v>1863.4</v>
       </c>
       <c r="F352" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G352" s="5">
         <v>90</v>
@@ -10678,7 +10678,7 @@
         <v>1863.4</v>
       </c>
       <c r="F353" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G353" s="5">
         <v>90</v>
@@ -10707,7 +10707,7 @@
         <v>1863.4</v>
       </c>
       <c r="F354" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G354" s="5">
         <v>90</v>
@@ -10736,7 +10736,7 @@
         <v>1863.4</v>
       </c>
       <c r="F355" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G355" s="5">
         <v>90</v>
@@ -10765,7 +10765,7 @@
         <v>1863.4</v>
       </c>
       <c r="F356" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G356" s="5">
         <v>90</v>
@@ -10794,7 +10794,7 @@
         <v>1863.4</v>
       </c>
       <c r="F357" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G357" s="5">
         <v>90</v>
@@ -10823,7 +10823,7 @@
         <v>1863.4</v>
       </c>
       <c r="F358" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G358" s="5">
         <v>90</v>
@@ -10852,7 +10852,7 @@
         <v>1863.4</v>
       </c>
       <c r="F359" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G359" s="5">
         <v>90</v>
@@ -10881,7 +10881,7 @@
         <v>1863.4</v>
       </c>
       <c r="F360" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G360" s="5">
         <v>90</v>
@@ -10910,7 +10910,7 @@
         <v>1863.4</v>
       </c>
       <c r="F361" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G361" s="5">
         <v>90</v>
@@ -10939,7 +10939,7 @@
         <v>1863.4</v>
       </c>
       <c r="F362" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G362" s="5">
         <v>90</v>
@@ -10968,7 +10968,7 @@
         <v>1863.4</v>
       </c>
       <c r="F363" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G363" s="5">
         <v>90</v>
@@ -10997,7 +10997,7 @@
         <v>1863.4</v>
       </c>
       <c r="F364" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G364" s="5">
         <v>90</v>
@@ -11026,7 +11026,7 @@
         <v>1863.4</v>
       </c>
       <c r="F365" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G365" s="5">
         <v>90</v>
@@ -11055,7 +11055,7 @@
         <v>1863.4</v>
       </c>
       <c r="F366" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G366" s="5">
         <v>90</v>
@@ -11084,7 +11084,7 @@
         <v>1863.4</v>
       </c>
       <c r="F367" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G367" s="5">
         <v>90</v>
@@ -11113,7 +11113,7 @@
         <v>1863.4</v>
       </c>
       <c r="F368" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G368" s="5">
         <v>90</v>
@@ -11142,7 +11142,7 @@
         <v>1863.4</v>
       </c>
       <c r="F369" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G369" s="5">
         <v>90</v>
@@ -11171,7 +11171,7 @@
         <v>1863.4</v>
       </c>
       <c r="F370" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G370" s="5">
         <v>90</v>
@@ -11200,7 +11200,7 @@
         <v>1900.18</v>
       </c>
       <c r="F371" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G371" s="5">
         <v>90</v>
@@ -11229,7 +11229,7 @@
         <v>1900.18</v>
       </c>
       <c r="F372" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G372" s="5">
         <v>90</v>
@@ -11258,7 +11258,7 @@
         <v>1863.4</v>
       </c>
       <c r="F373" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G373" s="5">
         <v>90</v>
@@ -11287,7 +11287,7 @@
         <v>1900.18</v>
       </c>
       <c r="F374" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G374" s="5">
         <v>90</v>
@@ -11316,7 +11316,7 @@
         <v>1900.18</v>
       </c>
       <c r="F375" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G375" s="5">
         <v>90</v>
@@ -11345,7 +11345,7 @@
         <v>1900.18</v>
       </c>
       <c r="F376" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G376" s="5">
         <v>90</v>
@@ -11374,7 +11374,7 @@
         <v>1900.18</v>
       </c>
       <c r="F377" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G377" s="5">
         <v>90</v>
@@ -11403,7 +11403,7 @@
         <v>1900.18</v>
       </c>
       <c r="F378" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G378" s="5">
         <v>90</v>
@@ -11432,7 +11432,7 @@
         <v>1900.18</v>
       </c>
       <c r="F379" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G379" s="5">
         <v>90</v>
@@ -11461,7 +11461,7 @@
         <v>1863.4</v>
       </c>
       <c r="F380" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G380" s="5">
         <v>90</v>
@@ -11490,7 +11490,7 @@
         <v>1900.18</v>
       </c>
       <c r="F381" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G381" s="5">
         <v>90</v>
@@ -11519,7 +11519,7 @@
         <v>1900.18</v>
       </c>
       <c r="F382" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G382" s="5">
         <v>90</v>
@@ -11548,7 +11548,7 @@
         <v>1863.4</v>
       </c>
       <c r="F383" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G383" s="5">
         <v>90</v>
@@ -11577,7 +11577,7 @@
         <v>1936.96</v>
       </c>
       <c r="F384" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G384" s="5">
         <v>90</v>
@@ -11606,7 +11606,7 @@
         <v>1936.96</v>
       </c>
       <c r="F385" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G385" s="5">
         <v>90</v>
@@ -11635,7 +11635,7 @@
         <v>1900.18</v>
       </c>
       <c r="F386" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G386" s="5">
         <v>90</v>
@@ -11664,7 +11664,7 @@
         <v>1900.18</v>
       </c>
       <c r="F387" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G387" s="5">
         <v>90</v>
@@ -11693,7 +11693,7 @@
         <v>1936.96</v>
       </c>
       <c r="F388" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G388" s="5">
         <v>90</v>
@@ -11722,7 +11722,7 @@
         <v>1900.18</v>
       </c>
       <c r="F389" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G389" s="5">
         <v>90</v>
@@ -11751,7 +11751,7 @@
         <v>1936.96</v>
       </c>
       <c r="F390" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G390" s="5">
         <v>90</v>
@@ -11780,7 +11780,7 @@
         <v>1973.74</v>
       </c>
       <c r="F391" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G391" s="5">
         <v>90</v>
@@ -11809,7 +11809,7 @@
         <v>1973.74</v>
       </c>
       <c r="F392" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G392" s="5">
         <v>90</v>
@@ -11838,7 +11838,7 @@
         <v>1936.96</v>
       </c>
       <c r="F393" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G393" s="5">
         <v>90</v>
@@ -11867,7 +11867,7 @@
         <v>1936.96</v>
       </c>
       <c r="F394" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G394" s="5">
         <v>90</v>
@@ -11896,7 +11896,7 @@
         <v>1936.96</v>
       </c>
       <c r="F395" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G395" s="5">
         <v>90</v>
@@ -11925,7 +11925,7 @@
         <v>1936.96</v>
       </c>
       <c r="F396" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G396" s="5">
         <v>90</v>
@@ -11954,7 +11954,7 @@
         <v>1936.96</v>
       </c>
       <c r="F397" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G397" s="5">
         <v>90</v>
@@ -11983,7 +11983,7 @@
         <v>1900.18</v>
       </c>
       <c r="F398" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G398" s="5">
         <v>90</v>
@@ -12012,7 +12012,7 @@
         <v>1936.96</v>
       </c>
       <c r="F399" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G399" s="5">
         <v>90</v>
@@ -12041,7 +12041,7 @@
         <v>1973.74</v>
       </c>
       <c r="F400" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G400" s="5">
         <v>90</v>
@@ -12070,7 +12070,7 @@
         <v>2010.52</v>
       </c>
       <c r="F401" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G401" s="5">
         <v>90</v>
@@ -12099,7 +12099,7 @@
         <v>2010.52</v>
       </c>
       <c r="F402" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G402" s="5">
         <v>90</v>
@@ -12128,7 +12128,7 @@
         <v>2010.52</v>
       </c>
       <c r="F403" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G403" s="5">
         <v>90</v>
@@ -12157,7 +12157,7 @@
         <v>1973.74</v>
       </c>
       <c r="F404" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G404" s="5">
         <v>90</v>
@@ -12186,7 +12186,7 @@
         <v>1973.74</v>
       </c>
       <c r="F405" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G405" s="5">
         <v>90</v>
@@ -12215,7 +12215,7 @@
         <v>1936.96</v>
       </c>
       <c r="F406" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G406" s="5">
         <v>90</v>
@@ -12244,7 +12244,7 @@
         <v>1973.74</v>
       </c>
       <c r="F407" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G407" s="5">
         <v>90</v>
@@ -12273,7 +12273,7 @@
         <v>2010.52</v>
       </c>
       <c r="F408" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G408" s="5">
         <v>90</v>
@@ -12302,7 +12302,7 @@
         <v>2010.52</v>
       </c>
       <c r="F409" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G409" s="5">
         <v>90</v>
@@ -12331,7 +12331,7 @@
         <v>1973.74</v>
       </c>
       <c r="F410" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G410" s="5">
         <v>90</v>
@@ -12360,7 +12360,7 @@
         <v>1973.74</v>
       </c>
       <c r="F411" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G411" s="5">
         <v>90</v>
@@ -12389,7 +12389,7 @@
         <v>1936.96</v>
       </c>
       <c r="F412" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G412" s="5">
         <v>90</v>
@@ -12418,7 +12418,7 @@
         <v>1973.74</v>
       </c>
       <c r="F413" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G413" s="5">
         <v>90</v>
@@ -12447,7 +12447,7 @@
         <v>1936.96</v>
       </c>
       <c r="F414" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G414" s="5">
         <v>90</v>
@@ -12476,7 +12476,7 @@
         <v>1973.74</v>
       </c>
       <c r="F415" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G415" s="5">
         <v>90</v>
@@ -12505,7 +12505,7 @@
         <v>2010.52</v>
       </c>
       <c r="F416" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G416" s="5">
         <v>90</v>
@@ -12534,7 +12534,7 @@
         <v>1973.74</v>
       </c>
       <c r="F417" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G417" s="5">
         <v>90</v>
@@ -12563,7 +12563,7 @@
         <v>2010.52</v>
       </c>
       <c r="F418" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G418" s="5">
         <v>90</v>
@@ -12592,7 +12592,7 @@
         <v>2047.3</v>
       </c>
       <c r="F419" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G419" s="5">
         <v>90</v>
@@ -12621,7 +12621,7 @@
         <v>2047.3</v>
       </c>
       <c r="F420" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G420" s="5">
         <v>90</v>
@@ -12650,7 +12650,7 @@
         <v>2047.3</v>
       </c>
       <c r="F421" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G421" s="5">
         <v>90</v>
@@ -12679,7 +12679,7 @@
         <v>2084.08</v>
       </c>
       <c r="F422" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G422" s="5">
         <v>90</v>
@@ -12708,7 +12708,7 @@
         <v>2084.08</v>
       </c>
       <c r="F423" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G423" s="5">
         <v>90</v>
@@ -12737,7 +12737,7 @@
         <v>2047.3</v>
       </c>
       <c r="F424" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G424" s="5">
         <v>90</v>
@@ -12766,7 +12766,7 @@
         <v>2047.3</v>
       </c>
       <c r="F425" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G425" s="5">
         <v>90</v>
@@ -12795,7 +12795,7 @@
         <v>2047.3</v>
       </c>
       <c r="F426" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G426" s="5">
         <v>90</v>
@@ -12824,7 +12824,7 @@
         <v>2010.52</v>
       </c>
       <c r="F427" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G427" s="5">
         <v>90</v>
@@ -12853,7 +12853,7 @@
         <v>2047.3</v>
       </c>
       <c r="F428" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G428" s="5">
         <v>90</v>
@@ -12882,7 +12882,7 @@
         <v>2047.3</v>
       </c>
       <c r="F429" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G429" s="5">
         <v>90</v>
@@ -12911,7 +12911,7 @@
         <v>2010.52</v>
       </c>
       <c r="F430" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G430" s="5">
         <v>90</v>
@@ -12940,7 +12940,7 @@
         <v>2047.3</v>
       </c>
       <c r="F431" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G431" s="5">
         <v>90</v>
@@ -12969,7 +12969,7 @@
         <v>2010.52</v>
       </c>
       <c r="F432" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G432" s="5">
         <v>90</v>
@@ -12998,7 +12998,7 @@
         <v>2010.52</v>
       </c>
       <c r="F433" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G433" s="5">
         <v>90</v>
@@ -13027,7 +13027,7 @@
         <v>2047.3</v>
       </c>
       <c r="F434" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G434" s="5">
         <v>90</v>
@@ -13056,7 +13056,7 @@
         <v>2047.3</v>
       </c>
       <c r="F435" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G435" s="5">
         <v>90</v>
@@ -13085,7 +13085,7 @@
         <v>2047.3</v>
       </c>
       <c r="F436" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G436" s="5">
         <v>90</v>
@@ -13114,7 +13114,7 @@
         <v>2047.3</v>
       </c>
       <c r="F437" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G437" s="5">
         <v>90</v>
@@ -13143,7 +13143,7 @@
         <v>2047.3</v>
       </c>
       <c r="F438" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G438" s="5">
         <v>90</v>
@@ -13172,7 +13172,7 @@
         <v>2047.3</v>
       </c>
       <c r="F439" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G439" s="5">
         <v>90</v>
@@ -13201,7 +13201,7 @@
         <v>2084.08</v>
       </c>
       <c r="F440" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G440" s="5">
         <v>90</v>
@@ -13230,7 +13230,7 @@
         <v>2084.08</v>
       </c>
       <c r="F441" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G441" s="5">
         <v>90</v>
@@ -13259,7 +13259,7 @@
         <v>2084.08</v>
       </c>
       <c r="F442" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G442" s="5">
         <v>90</v>
@@ -13288,7 +13288,7 @@
         <v>2084.08</v>
       </c>
       <c r="F443" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G443" s="5">
         <v>90</v>
@@ -13317,7 +13317,7 @@
         <v>2120.86</v>
       </c>
       <c r="F444" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G444" s="5">
         <v>90</v>
@@ -13346,7 +13346,7 @@
         <v>2084.08</v>
       </c>
       <c r="F445" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G445" s="5">
         <v>90</v>
@@ -13375,7 +13375,7 @@
         <v>2084.08</v>
       </c>
       <c r="F446" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G446" s="5">
         <v>90</v>
@@ -13404,7 +13404,7 @@
         <v>2047.3</v>
       </c>
       <c r="F447" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G447" s="5">
         <v>90</v>
@@ -13433,7 +13433,7 @@
         <v>2047.3</v>
       </c>
       <c r="F448" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G448" s="5">
         <v>90</v>
@@ -13462,7 +13462,7 @@
         <v>2010.52</v>
       </c>
       <c r="F449" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G449" s="5">
         <v>90</v>
@@ -13491,7 +13491,7 @@
         <v>1973.74</v>
       </c>
       <c r="F450" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G450" s="5">
         <v>90</v>
@@ -13520,7 +13520,7 @@
         <v>1936.96</v>
       </c>
       <c r="F451" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G451" s="5">
         <v>90</v>
@@ -13549,7 +13549,7 @@
         <v>1863.4</v>
       </c>
       <c r="F452" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G452" s="5">
         <v>90</v>
@@ -13578,7 +13578,7 @@
         <v>1936.96</v>
       </c>
       <c r="F453" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G453" s="5">
         <v>90</v>
@@ -13607,7 +13607,7 @@
         <v>1973.74</v>
       </c>
       <c r="F454" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G454" s="5">
         <v>90</v>
@@ -13636,7 +13636,7 @@
         <v>2010.52</v>
       </c>
       <c r="F455" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G455" s="5">
         <v>90</v>
@@ -13665,7 +13665,7 @@
         <v>2010.52</v>
       </c>
       <c r="F456" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G456" s="5">
         <v>90</v>
@@ -13694,7 +13694,7 @@
         <v>2010.52</v>
       </c>
       <c r="F457" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G457" s="5">
         <v>90</v>
@@ -13723,7 +13723,7 @@
         <v>2010.52</v>
       </c>
       <c r="F458" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G458" s="5">
         <v>90</v>
@@ -13752,7 +13752,7 @@
         <v>2010.52</v>
       </c>
       <c r="F459" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G459" s="5">
         <v>90</v>
@@ -13781,7 +13781,7 @@
         <v>2047.3</v>
       </c>
       <c r="F460" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G460" s="5">
         <v>90</v>
@@ -13810,7 +13810,7 @@
         <v>2047.3</v>
       </c>
       <c r="F461" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G461" s="5">
         <v>90</v>
@@ -13839,7 +13839,7 @@
         <v>2047.3</v>
       </c>
       <c r="F462" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G462" s="5">
         <v>90</v>
@@ -13868,7 +13868,7 @@
         <v>2047.3</v>
       </c>
       <c r="F463" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G463" s="5">
         <v>90</v>
@@ -13897,7 +13897,7 @@
         <v>2047.3</v>
       </c>
       <c r="F464" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G464" s="5">
         <v>90</v>
@@ -13926,7 +13926,7 @@
         <v>2084.08</v>
       </c>
       <c r="F465" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G465" s="5">
         <v>90</v>
@@ -13955,7 +13955,7 @@
         <v>2084.08</v>
       </c>
       <c r="F466" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G466" s="5">
         <v>90</v>
@@ -13984,7 +13984,7 @@
         <v>2084.08</v>
       </c>
       <c r="F467" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G467" s="5">
         <v>90</v>
@@ -14013,7 +14013,7 @@
         <v>2084.08</v>
       </c>
       <c r="F468" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G468" s="5">
         <v>90</v>
@@ -14042,7 +14042,7 @@
         <v>2084.08</v>
       </c>
       <c r="F469" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G469" s="5">
         <v>90</v>
@@ -14071,7 +14071,7 @@
         <v>2084.08</v>
       </c>
       <c r="F470" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G470" s="5">
         <v>90</v>
@@ -14100,7 +14100,7 @@
         <v>2084.08</v>
       </c>
       <c r="F471" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G471" s="5">
         <v>90</v>
@@ -14129,7 +14129,7 @@
         <v>2120.86</v>
       </c>
       <c r="F472" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G472" s="5">
         <v>90</v>
@@ -14158,7 +14158,7 @@
         <v>2157.64</v>
       </c>
       <c r="F473" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G473" s="5">
         <v>90</v>
@@ -14187,7 +14187,7 @@
         <v>2157.64</v>
       </c>
       <c r="F474" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G474" s="5">
         <v>90</v>
@@ -14216,7 +14216,7 @@
         <v>2157.64</v>
       </c>
       <c r="F475" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G475" s="5">
         <v>90</v>
@@ -14245,7 +14245,7 @@
         <v>2120.86</v>
       </c>
       <c r="F476" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G476" s="5">
         <v>90</v>
@@ -14274,7 +14274,7 @@
         <v>2084.08</v>
       </c>
       <c r="F477" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G477" s="5">
         <v>90</v>
@@ -14303,7 +14303,7 @@
         <v>2084.08</v>
       </c>
       <c r="F478" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G478" s="5">
         <v>90</v>
@@ -14332,7 +14332,7 @@
         <v>2084.08</v>
       </c>
       <c r="F479" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G479" s="5">
         <v>90</v>
@@ -14361,7 +14361,7 @@
         <v>2157.64</v>
       </c>
       <c r="F480" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G480" s="5">
         <v>90</v>
@@ -14390,7 +14390,7 @@
         <v>2157.64</v>
       </c>
       <c r="F481" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G481" s="5">
         <v>90</v>
@@ -14419,7 +14419,7 @@
         <v>2120.86</v>
       </c>
       <c r="F482" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G482" s="5">
         <v>90</v>
@@ -14448,7 +14448,7 @@
         <v>2157.64</v>
       </c>
       <c r="F483" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G483" s="5">
         <v>90</v>
@@ -14477,7 +14477,7 @@
         <v>2157.64</v>
       </c>
       <c r="F484" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G484" s="5">
         <v>90</v>
@@ -14506,7 +14506,7 @@
         <v>2157.64</v>
       </c>
       <c r="F485" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G485" s="5">
         <v>90</v>
@@ -14535,7 +14535,7 @@
         <v>2157.64</v>
       </c>
       <c r="F486" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G486" s="5">
         <v>90</v>
@@ -14564,7 +14564,7 @@
         <v>2194.42</v>
       </c>
       <c r="F487" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G487" s="5">
         <v>90</v>
@@ -14593,7 +14593,7 @@
         <v>2194.42</v>
       </c>
       <c r="F488" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G488" s="5">
         <v>90</v>
@@ -14622,7 +14622,7 @@
         <v>2194.42</v>
       </c>
       <c r="F489" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G489" s="5">
         <v>90</v>
@@ -14651,7 +14651,7 @@
         <v>2194.42</v>
       </c>
       <c r="F490" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G490" s="5">
         <v>90</v>
@@ -14680,7 +14680,7 @@
         <v>2194.42</v>
       </c>
       <c r="F491" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G491" s="5">
         <v>90</v>
@@ -14709,7 +14709,7 @@
         <v>2194.42</v>
       </c>
       <c r="F492" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G492" s="5">
         <v>90</v>
@@ -14738,7 +14738,7 @@
         <v>2194.42</v>
       </c>
       <c r="F493" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G493" s="5">
         <v>90</v>
@@ -14767,7 +14767,7 @@
         <v>2194.42</v>
       </c>
       <c r="F494" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G494" s="5">
         <v>90</v>
@@ -14796,7 +14796,7 @@
         <v>2194.42</v>
       </c>
       <c r="F495" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G495" s="5">
         <v>90</v>
@@ -14825,7 +14825,7 @@
         <v>2194.42</v>
       </c>
       <c r="F496" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G496" s="5">
         <v>90</v>
@@ -14854,7 +14854,7 @@
         <v>2194.42</v>
       </c>
       <c r="F497" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G497" s="5">
         <v>90</v>
@@ -14883,7 +14883,7 @@
         <v>2194.42</v>
       </c>
       <c r="F498" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G498" s="5">
         <v>90</v>
@@ -14912,7 +14912,7 @@
         <v>2194.42</v>
       </c>
       <c r="F499" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G499" s="5">
         <v>90</v>
@@ -14941,7 +14941,7 @@
         <v>2194.42</v>
       </c>
       <c r="F500" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G500" s="5">
         <v>90</v>
@@ -14970,7 +14970,7 @@
         <v>2194.42</v>
       </c>
       <c r="F501" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G501" s="5">
         <v>90</v>
@@ -14999,7 +14999,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F502" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G502" s="5">
         <v>90</v>
@@ -15028,7 +15028,7 @@
         <v>2194.42</v>
       </c>
       <c r="F503" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G503" s="5">
         <v>90</v>
@@ -15057,7 +15057,7 @@
         <v>2194.42</v>
       </c>
       <c r="F504" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G504" s="5">
         <v>90</v>
@@ -15086,7 +15086,7 @@
         <v>2194.42</v>
       </c>
       <c r="F505" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G505" s="5">
         <v>90</v>
@@ -15115,7 +15115,7 @@
         <v>2157.64</v>
       </c>
       <c r="F506" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G506" s="5">
         <v>90</v>
@@ -15144,7 +15144,7 @@
         <v>2194.42</v>
       </c>
       <c r="F507" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G507" s="5">
         <v>90</v>
@@ -15173,7 +15173,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F508" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G508" s="5">
         <v>90</v>
@@ -15202,7 +15202,7 @@
         <v>2267.98</v>
       </c>
       <c r="F509" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G509" s="5">
         <v>90</v>
@@ -15231,7 +15231,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F510" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G510" s="5">
         <v>90</v>
@@ -15260,7 +15260,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F511" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G511" s="5">
         <v>90</v>
@@ -15289,7 +15289,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F512" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G512" s="5">
         <v>90</v>
@@ -15318,7 +15318,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F513" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G513" s="5">
         <v>90</v>
@@ -15347,7 +15347,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F514" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G514" s="5">
         <v>90</v>
@@ -15376,7 +15376,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F515" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G515" s="5">
         <v>90</v>
@@ -15405,7 +15405,7 @@
         <v>2194.42</v>
       </c>
       <c r="F516" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G516" s="5">
         <v>90</v>
@@ -15434,7 +15434,7 @@
         <v>2194.42</v>
       </c>
       <c r="F517" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G517" s="5">
         <v>90</v>
@@ -15463,7 +15463,7 @@
         <v>2194.42</v>
       </c>
       <c r="F518" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G518" s="5">
         <v>90</v>
@@ -15492,7 +15492,7 @@
         <v>2194.42</v>
       </c>
       <c r="F519" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G519" s="5">
         <v>90</v>
@@ -15521,7 +15521,7 @@
         <v>2194.42</v>
       </c>
       <c r="F520" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G520" s="5">
         <v>90</v>
@@ -15550,7 +15550,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F521" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G521" s="5">
         <v>90</v>
@@ -15579,7 +15579,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F522" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G522" s="5">
         <v>90</v>
@@ -15608,7 +15608,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F523" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G523" s="5">
         <v>90</v>
@@ -15637,7 +15637,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F524" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G524" s="5">
         <v>90</v>
@@ -15666,7 +15666,7 @@
         <v>2267.98</v>
       </c>
       <c r="F525" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G525" s="5">
         <v>90</v>
@@ -15695,7 +15695,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F526" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G526" s="5">
         <v>90</v>
@@ -15724,7 +15724,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F527" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G527" s="5">
         <v>90</v>
@@ -15753,7 +15753,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F528" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G528" s="5">
         <v>90</v>
@@ -15782,7 +15782,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F529" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G529" s="5">
         <v>90</v>
@@ -15811,7 +15811,7 @@
         <v>2267.98</v>
       </c>
       <c r="F530" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G530" s="5">
         <v>90</v>
@@ -15840,7 +15840,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F531" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G531" s="5">
         <v>90</v>
@@ -15869,7 +15869,7 @@
         <v>2194.42</v>
       </c>
       <c r="F532" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G532" s="5">
         <v>90</v>
@@ -15898,7 +15898,7 @@
         <v>2194.42</v>
       </c>
       <c r="F533" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G533" s="5">
         <v>90</v>
@@ -15927,7 +15927,7 @@
         <v>2194.42</v>
       </c>
       <c r="F534" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G534" s="5">
         <v>90</v>
@@ -15956,7 +15956,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F535" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G535" s="5">
         <v>90</v>
@@ -15985,7 +15985,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F536" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G536" s="5">
         <v>90</v>
@@ -16014,7 +16014,7 @@
         <v>2194.42</v>
       </c>
       <c r="F537" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G537" s="5">
         <v>90</v>
@@ -16043,7 +16043,7 @@
         <v>2194.42</v>
       </c>
       <c r="F538" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G538" s="5">
         <v>90</v>
@@ -16072,7 +16072,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F539" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G539" s="5">
         <v>90</v>
@@ -16101,7 +16101,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F540" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G540" s="5">
         <v>90</v>
@@ -16130,7 +16130,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F541" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G541" s="5">
         <v>90</v>
@@ -16159,7 +16159,7 @@
         <v>2267.98</v>
       </c>
       <c r="F542" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G542" s="5">
         <v>90</v>
@@ -16188,7 +16188,7 @@
         <v>2267.98</v>
       </c>
       <c r="F543" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G543" s="5">
         <v>90</v>
@@ -16217,7 +16217,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F544" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G544" s="5">
         <v>90</v>
@@ -16246,7 +16246,7 @@
         <v>2194.42</v>
       </c>
       <c r="F545" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G545" s="5">
         <v>90</v>
@@ -16275,7 +16275,7 @@
         <v>2194.42</v>
       </c>
       <c r="F546" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G546" s="5">
         <v>90</v>
@@ -16304,7 +16304,7 @@
         <v>2157.64</v>
       </c>
       <c r="F547" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G547" s="5">
         <v>90</v>
@@ -16333,7 +16333,7 @@
         <v>2231.1999999999998</v>
       </c>
       <c r="F548" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G548" s="5">
         <v>90</v>
@@ -16362,7 +16362,7 @@
         <v>2267.98</v>
       </c>
       <c r="F549" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G549" s="5">
         <v>90</v>
@@ -16391,7 +16391,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F550" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G550" s="5">
         <v>90</v>
@@ -16420,7 +16420,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F551" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G551" s="5">
         <v>90</v>
@@ -16449,7 +16449,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F552" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G552" s="5">
         <v>90</v>
@@ -16478,7 +16478,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F553" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G553" s="5">
         <v>90</v>
@@ -16507,7 +16507,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F554" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G554" s="5">
         <v>90</v>
@@ -16536,7 +16536,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F555" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G555" s="5">
         <v>90</v>
@@ -16565,7 +16565,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F556" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G556" s="5">
         <v>90</v>
@@ -16594,7 +16594,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F557" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G557" s="5">
         <v>90</v>
@@ -16623,7 +16623,7 @@
         <v>2341.54</v>
       </c>
       <c r="F558" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G558" s="5">
         <v>90</v>
@@ -16652,7 +16652,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F559" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G559" s="5">
         <v>90</v>
@@ -16681,7 +16681,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F560" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G560" s="5">
         <v>90</v>
@@ -16710,7 +16710,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F561" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G561" s="5">
         <v>90</v>
@@ -16739,7 +16739,7 @@
         <v>2304.7600000000002</v>
       </c>
       <c r="F562" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G562" s="5">
         <v>90</v>
@@ -16768,7 +16768,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F563" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G563" s="5">
         <v>90</v>
@@ -16797,7 +16797,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F564" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G564" s="5">
         <v>90</v>
@@ -16826,7 +16826,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F565" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G565" s="5">
         <v>90</v>
@@ -16855,7 +16855,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F566" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G566" s="5">
         <v>90</v>
@@ -16884,7 +16884,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F567" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G567" s="5">
         <v>90</v>
@@ -16913,7 +16913,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F568" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G568" s="5">
         <v>90</v>
@@ -16942,7 +16942,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F569" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G569" s="5">
         <v>90</v>
@@ -16971,7 +16971,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F570" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G570" s="5">
         <v>90</v>
@@ -17000,7 +17000,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F571" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G571" s="5">
         <v>90</v>
@@ -17029,7 +17029,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F572" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G572" s="5">
         <v>90</v>
@@ -17058,7 +17058,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F573" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G573" s="5">
         <v>90</v>
@@ -17087,7 +17087,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F574" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G574" s="5">
         <v>90</v>
@@ -17116,7 +17116,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F575" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G575" s="5">
         <v>90</v>
@@ -17145,7 +17145,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F576" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G576" s="5">
         <v>90</v>
@@ -17174,7 +17174,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F577" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G577" s="5">
         <v>90</v>
@@ -17203,7 +17203,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F578" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G578" s="5">
         <v>90</v>
@@ -17232,7 +17232,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F579" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G579" s="5">
         <v>90</v>
@@ -17261,7 +17261,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F580" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G580" s="5">
         <v>90</v>
@@ -17290,7 +17290,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F581" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G581" s="5">
         <v>90</v>
@@ -17319,7 +17319,7 @@
         <v>2451.88</v>
       </c>
       <c r="F582" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G582" s="5">
         <v>90</v>
@@ -17348,7 +17348,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F583" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G583" s="5">
         <v>90</v>
@@ -17377,7 +17377,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F584" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G584" s="5">
         <v>90</v>
@@ -17406,7 +17406,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F585" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G585" s="5">
         <v>90</v>
@@ -17435,7 +17435,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F586" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G586" s="5">
         <v>90</v>
@@ -17464,7 +17464,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F587" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G587" s="5">
         <v>90</v>
@@ -17493,7 +17493,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F588" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G588" s="5">
         <v>90</v>
@@ -17522,7 +17522,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F589" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G589" s="5">
         <v>90</v>
@@ -17551,7 +17551,7 @@
         <v>2451.88</v>
       </c>
       <c r="F590" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G590" s="5">
         <v>90</v>
@@ -17580,7 +17580,7 @@
         <v>2451.88</v>
       </c>
       <c r="F591" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G591" s="5">
         <v>90</v>
@@ -17609,7 +17609,7 @@
         <v>2451.88</v>
       </c>
       <c r="F592" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G592" s="5">
         <v>90</v>
@@ -17638,7 +17638,7 @@
         <v>2451.88</v>
       </c>
       <c r="F593" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G593" s="5">
         <v>90</v>
@@ -17667,7 +17667,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F594" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G594" s="5">
         <v>90</v>
@@ -17696,7 +17696,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F595" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G595" s="5">
         <v>90</v>
@@ -17725,7 +17725,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F596" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G596" s="5">
         <v>90</v>
@@ -17754,7 +17754,7 @@
         <v>2378.3200000000002</v>
       </c>
       <c r="F597" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G597" s="5">
         <v>90</v>
@@ -17783,7 +17783,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F598" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G598" s="5">
         <v>90</v>
@@ -17812,7 +17812,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F599" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G599" s="5">
         <v>90</v>
@@ -17841,7 +17841,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F600" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G600" s="5">
         <v>90</v>
@@ -17870,7 +17870,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F601" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G601" s="5">
         <v>90</v>
@@ -17899,7 +17899,7 @@
         <v>2415.1000000000004</v>
       </c>
       <c r="F602" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G602" s="5">
         <v>90</v>
